--- a/medicine/Pharmacie/Marc_de_Garidel/Marc_de_Garidel.xlsx
+++ b/medicine/Pharmacie/Marc_de_Garidel/Marc_de_Garidel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marc de Garidel, né le 16 mars 1958 à Aix-en-Provence, est un homme d'affaires français.
 Il est président-directeur général de la société pharmaceutique Ipsen de 2010-2016 ainsi que président du conseil d’administration de cette société depuis 2010. 
-Depuis Avril 2023, il est président-directeur général et président par interim du conseil d’administration de la société de biotechnologie Abivax, cotée au NASDAQ en octobre 2023[1],[2],[3],[4],[5].
+Depuis Avril 2023, il est président-directeur général et président par interim du conseil d’administration de la société de biotechnologie Abivax, cotée au NASDAQ en octobre 2023.
 </t>
         </is>
       </c>
@@ -515,14 +527,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Marc de Garidel-Thoron naît le 16 mars 1958 à Aix-en-Provence, fils du comte Antoine de Garidel-Thoron, propriétaire exploitant agricole et maire de Coudoux de 1973-1983 (Bouches-du-Rhone)[6], chevalier puis officier du Mérite agricole[7] 
-Il est issu d'une ancienne famille française originaire du comté de Nice qui a donné dans les XIVe et XVe siècles des militaires distingués dans les armées du roi de Naples et du duc de Savoie. Cette famille a ensuite occupé des charges de conseillers du roi au Parlement de Provence[8]. 
-Par sa mère, Huguette de Marliave, il est le petit-fils du comte Charles de Marliave[7], président de la Compagnie des mines d’anthracite de La Mure[9]. 
-Il épouse Béatrice Lenoan le 2 juillet 1983[7], une petite-fille du conseiller-doyen de la Cour de Cassation et officier de la Legion d'Honneur, Roger Lenoan[10].
-Formation
-Après une scolarité à Aix-en-Provence, il intègre les classes préparatoires du lycée Thiers à Marseille[7]. 
-Il sort diplômé de l'École spéciale des travaux publics (TP 80), une grande école d'ingénieurs à Paris[1],[11],[12], puis obtient aux Etats-Unis un master de management de la Thunderbird School of Global Management à Glendale (en Arizona), et un MBA de l'Harvard Business School[13],[14].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc de Garidel-Thoron naît le 16 mars 1958 à Aix-en-Provence, fils du comte Antoine de Garidel-Thoron, propriétaire exploitant agricole et maire de Coudoux de 1973-1983 (Bouches-du-Rhone), chevalier puis officier du Mérite agricole 
+Il est issu d'une ancienne famille française originaire du comté de Nice qui a donné dans les XIVe et XVe siècles des militaires distingués dans les armées du roi de Naples et du duc de Savoie. Cette famille a ensuite occupé des charges de conseillers du roi au Parlement de Provence. 
+Par sa mère, Huguette de Marliave, il est le petit-fils du comte Charles de Marliave, président de la Compagnie des mines d’anthracite de La Mure. 
+Il épouse Béatrice Lenoan le 2 juillet 1983, une petite-fille du conseiller-doyen de la Cour de Cassation et officier de la Legion d'Honneur, Roger Lenoan.
 </t>
         </is>
       </c>
@@ -548,19 +562,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Carrière</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En 1983, il commence sa carrière au sein du groupe Eli Lilly and Company, où il travaille en France, aux États-Unis et en Allemagne[1],[3].
-En 1995, il rejoint Amgen en tant que vice-président des finances et de la trésorerie pour l'Europe[1],[3],[4]. En 1998, il est nommé vice-président, contrôleur de gestion et directeur comptable d'Amgen[1],[3]. En 2000, il devient vice-président et directeur général pour la France, en charge d'Amgen France[1],[3]. En 2006, il devient vice-président pour l'Europe du Sud-ouest, comprenant la France, l'Espagne, la Belgique et le Portugal[1],[3]. De 2007 à 2010, il a occupé le poste de vice-président pour l'Europe du Sud, le Moyen-Orient, l'Asie et l'Amérique latine chez Amgen[1],[3],[4].
-Après ces quinze années chez Amgen[15], il devient président et directeur général d'Ipsen de novembre 2010 à juillet 2016[1],[3],[4],[16], et participe au lancement du médicament Somatuline[15].
-Pendant cette même période, il est également président et porte-parole de G5 santé, un groupe de lobbying des entreprises pharmaceutiques françaises, dont BioMérieux, Guerbet, Ipsen, le Laboratoire français du fractionnement et des biotechnologies, les Laboratoires Pierre Fabre, Sanofi, Stallergenes Greer et les Laboratoires Théa[5].
-A partir du 18 juillet 2016, Marc de Garidel est président non exécutif d'Ipsen et continue de siéger au conseil d'administration. En outre, il conseille Mayroy, la holding de contrôle d'Ipsen. Auparavant, il a été administrateur de plusieurs sociétés de biotechnologie, dont vice-président du conseil d'administration de CSL Vifor (Suisse) entre mai 2017 et 2018 (anciennement Galenica), dont il était membre du conseil depuis 2015.
-Début 2018, Marc de Garidel a rejoint Corvidia Therapeutics[15], une entreprise de biotechnologie basée à Waltham, dans le Massachusetts.
-Marc de Garidel est directeur de Claris Biotherapeutics depuis juillet 2020. Il a rejoint AZTherapies[15] en tant que directeur général et membre du conseil d'administration le 1er octobre 2020[17].
-Depuis Avril 2023, il est président-directeur général et président par interim du conseil d’administration de la société de biotechnologie Abivax[18], cotée au NASDAQ en octobre 2023[19].
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après une scolarité à Aix-en-Provence, il intègre les classes préparatoires du lycée Thiers à Marseille. 
+Il sort diplômé de l'École spéciale des travaux publics (TP 80), une grande école d'ingénieurs à Paris puis obtient aux Etats-Unis un master de management de la Thunderbird School of Global Management à Glendale (en Arizona), et un MBA de l'Harvard Business School,.
 </t>
         </is>
       </c>
@@ -586,24 +600,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Autres Mandats</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Président non exécutif du conseil administration de Promethera[20]
-Président non exécutif du conseil administration de Suraypharm SAS[21]
-Membre du conseil administration de TcLand[20]
-Membre du conseil administration de Protein’Expert[20]
-Membre du conseil administration de Pharnext[22]
-Membre du conseil de surveillance de l’Inserm Transfert SA[23]
-Président du Comité Biotech du Leem - Les Entreprises de Médicament (2003-2006)[24]
-Vice Président à partir de 2006 puis Président à partir de Juin 2010 de l’European Biopharmaceutical Enterprises[20]
-Président du G5 Santé (2011-2018)[25]
-Vice-Président du Comité stratégique de filière des industries et technologies de santé (2013)[26]
-Vice-Président de la Fédération européenne des associations et industries pharmaceutiques (2014-2017)[27]
-Président du conseil d’administration de l’Innovative Medicines Initiative (IMI) Governing Board (2015-2017)[28]
-Enseignant à l’Ecole Centrale de Paris, à l’ESSEC Business School et à l’ESCP Business School[20]</t>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1983, il commence sa carrière au sein du groupe Eli Lilly and Company, où il travaille en France, aux États-Unis et en Allemagne,.
+En 1995, il rejoint Amgen en tant que vice-président des finances et de la trésorerie pour l'Europe. En 1998, il est nommé vice-président, contrôleur de gestion et directeur comptable d'Amgen,. En 2000, il devient vice-président et directeur général pour la France, en charge d'Amgen France,. En 2006, il devient vice-président pour l'Europe du Sud-ouest, comprenant la France, l'Espagne, la Belgique et le Portugal,. De 2007 à 2010, il a occupé le poste de vice-président pour l'Europe du Sud, le Moyen-Orient, l'Asie et l'Amérique latine chez Amgen.
+Après ces quinze années chez Amgen, il devient président et directeur général d'Ipsen de novembre 2010 à juillet 2016 et participe au lancement du médicament Somatuline.
+Pendant cette même période, il est également président et porte-parole de G5 santé, un groupe de lobbying des entreprises pharmaceutiques françaises, dont BioMérieux, Guerbet, Ipsen, le Laboratoire français du fractionnement et des biotechnologies, les Laboratoires Pierre Fabre, Sanofi, Stallergenes Greer et les Laboratoires Théa.
+A partir du 18 juillet 2016, Marc de Garidel est président non exécutif d'Ipsen et continue de siéger au conseil d'administration. En outre, il conseille Mayroy, la holding de contrôle d'Ipsen. Auparavant, il a été administrateur de plusieurs sociétés de biotechnologie, dont vice-président du conseil d'administration de CSL Vifor (Suisse) entre mai 2017 et 2018 (anciennement Galenica), dont il était membre du conseil depuis 2015.
+Début 2018, Marc de Garidel a rejoint Corvidia Therapeutics, une entreprise de biotechnologie basée à Waltham, dans le Massachusetts.
+Marc de Garidel est directeur de Claris Biotherapeutics depuis juillet 2020. Il a rejoint AZTherapies en tant que directeur général et membre du conseil d'administration le 1er octobre 2020.
+Depuis Avril 2023, il est président-directeur général et président par interim du conseil d’administration de la société de biotechnologie Abivax, cotée au NASDAQ en octobre 2023.
+</t>
         </is>
       </c>
     </row>
@@ -628,12 +640,58 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Autres Mandats</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Président non exécutif du conseil administration de Promethera
+Président non exécutif du conseil administration de Suraypharm SAS
+Membre du conseil administration de TcLand
+Membre du conseil administration de Protein’Expert
+Membre du conseil administration de Pharnext
+Membre du conseil de surveillance de l’Inserm Transfert SA
+Président du Comité Biotech du Leem - Les Entreprises de Médicament (2003-2006)
+Vice Président à partir de 2006 puis Président à partir de Juin 2010 de l’European Biopharmaceutical Enterprises
+Président du G5 Santé (2011-2018)
+Vice-Président du Comité stratégique de filière des industries et technologies de santé (2013)
+Vice-Président de la Fédération européenne des associations et industries pharmaceutiques (2014-2017)
+Président du conseil d’administration de l’Innovative Medicines Initiative (IMI) Governing Board (2015-2017)
+Enseignant à l’Ecole Centrale de Paris, à l’ESSEC Business School et à l’ESCP Business School</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marc_de_Garidel</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_de_Garidel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur (2008)[29] pour avoir rendu des « services éminents » à la Nation[30].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (2008) pour avoir rendu des « services éminents » à la Nation.
 </t>
         </is>
       </c>
